--- a/processed_data/kapital_bank_excel/2022_Q2/capital_adequacy_2022_Q2.xlsx
+++ b/processed_data/kapital_bank_excel/2022_Q2/capital_adequacy_2022_Q2.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table_2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,10 +448,8 @@
           <t>Bank kapitalının strukturu və adekvatlığı barədə məlumatlar</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>(min manatla)</t>
@@ -487,10 +486,8 @@
           <t>b) Qeyri-kumulyativ müddətsiz imtiyazlı</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>60000</t>
@@ -503,7 +500,6 @@
           <t>səhmlər</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -511,10 +507,8 @@
           <t>c) Səhmlərin emissiyasından əmələ gələn</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>800</t>
@@ -527,7 +521,6 @@
           <t>əlavə vəsait</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -535,10 +528,8 @@
           <t>d)   Bölüşdürülməmiş xalis mənfəət (zərər),</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>209770</t>
@@ -551,7 +542,6 @@
           <t>cəmi</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -679,10 +669,8 @@
           <t>b) Ümumi ehtiyatlar (aktivlər üzrə yaradılmış</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
           <t>36178</t>
@@ -695,7 +683,6 @@
           <t>adi ehtiyatlardan çox olmamaqla)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -775,7 +762,6 @@
           <t>a)   Birləşməmiş (konsolidasiya olunmamış)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -783,7 +769,6 @@
           <t>törəmə banka və digər maliyyə idarələrinin</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -803,7 +788,6 @@
           <t>kapital investisiyaları, o cümlədən qarşılıqlı</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -811,7 +795,6 @@
           <t>investisiyalar (xalis)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -927,10 +910,8 @@
           <t>8.7. 100%-dən yuxarı risk qrupuna daxil olan</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
           <t>2142314</t>
@@ -943,7 +924,6 @@
           <t>aktivlər</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -951,7 +931,6 @@
           <t>*risk qruplarının tərkibi "Bank kapitalının və onun adekvatlığının hesablanması Qaydaları" ilə müəyyən</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -959,7 +938,113 @@
           <t>olunur.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Əmsal</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Norma (Sistem əhəmiyyətli)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Norma (Banklar istisna)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fakt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>9.  I dərəcəli  kapitalın  adekvatlıq əmsalı</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10. məcmu kapitalın  adekvatlıq  əmsalı</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12.0%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11. Leverec əmsalı</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>minimum 5%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>minimum 4%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.4%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
